--- a/paper-supplement/tables/supplemental-table-6.xlsx
+++ b/paper-supplement/tables/supplemental-table-6.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abisesi/Desktop/PhD/Projects/Host-Ecology-and-Host-Range/paper-supplement/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BC553ED-C8A0-DA41-9DC7-99A6C73EE413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CFBE9A-F6B2-8947-B87C-B61DEC4A3771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="supplemental-table-6" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Predicted mutations</t>
   </si>
@@ -43,30 +43,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>G→A</t>
-  </si>
-  <si>
-    <t>G514S (GGT→AGT) </t>
-  </si>
-  <si>
-    <t>9 →</t>
-  </si>
-  <si>
-    <t>tailspike protein</t>
-  </si>
-  <si>
-    <t>C→A</t>
-  </si>
-  <si>
-    <t>E91* (GAA→TAA) </t>
-  </si>
-  <si>
-    <t>17 ←</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
     <t>G→T</t>
   </si>
   <si>
@@ -95,21 +71,12 @@
   </si>
   <si>
     <t>intergenic (‑53/‑28)</t>
-  </si>
-  <si>
-    <t>H92N (CAT→AAT) </t>
-  </si>
-  <si>
-    <t>ninB →</t>
-  </si>
-  <si>
-    <t>NinB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -602,16 +569,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -966,11 +932,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -981,153 +947,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>17743</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="2">
+        <v>30899</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>28455</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="2">
+        <v>31700</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.06</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>30899</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2">
+        <v>31716</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>31700</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>31716</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>35023</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
